--- a/Excel/Quality/Supplier_PPM.xlsx
+++ b/Excel/Quality/Supplier_PPM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Mahle-dashboard\Excel\Quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.52.95.143\Mahle-dashboard\Excel\Quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1B9C47-E888-4B11-82C0-A84F35AB3CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier PPM" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Monthly Data" sheetId="3" r:id="rId3"/>
     <sheet name="Supplier Issue" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -124,32 +125,122 @@
     <t>Status</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Closed</t>
   </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>Welding Spatter</t>
+  </si>
+  <si>
+    <t>No rejection</t>
+  </si>
+  <si>
+    <t>Thread Incomplete</t>
+  </si>
+  <si>
+    <t>Mix Bolts</t>
+  </si>
+  <si>
+    <t>Cut Mark</t>
+  </si>
+  <si>
+    <t>Dent</t>
+  </si>
+  <si>
+    <t>Delfin not OK</t>
+  </si>
+  <si>
+    <t>Clamp welding issue</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>100% inspection started</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>Housing Damage</t>
+  </si>
+  <si>
+    <t>Cover Damage</t>
+  </si>
+  <si>
+    <t>Rusty</t>
+  </si>
+  <si>
+    <t>Water mark on element cap</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Plant Off</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>Parting Line</t>
+  </si>
+  <si>
+    <t>Rusty Bracket</t>
+  </si>
+  <si>
+    <t>Gasket Cut</t>
+  </si>
+  <si>
+    <t>Cut Mark &amp; Dirty</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +393,26 @@
       <color indexed="62"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="52">
@@ -764,184 +875,184 @@
   </borders>
   <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="3" fillId="27" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="6" fillId="27" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="28" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="27" fillId="28" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="28" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="28" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="29" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="29" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="30" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="30" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="31" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="31" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="32" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="32" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="33" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="33" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="34" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="34" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="35" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="35" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="36" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="36" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="37" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="37" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="38" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="38" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="39" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="39" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="40" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="9" fillId="40" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="40" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="9" fillId="40" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="41" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="41" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="42" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="42" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="41" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="41" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="10" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="10" applyNumberFormat="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="11" applyBorder="0"/>
-    <xf numFmtId="4" fontId="5" fillId="47" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="11" applyBorder="0"/>
+    <xf numFmtId="4" fontId="8" fillId="47" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="48" borderId="12" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="27" fillId="48" borderId="12" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="43" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="8" fillId="43" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="49" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="27" fillId="49" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="29" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="29" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="8" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="8" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="50" borderId="9" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="11" fillId="50" borderId="9" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="12"/>
-    <xf numFmtId="4" fontId="9" fillId="46" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="12"/>
+    <xf numFmtId="4" fontId="12" fillId="46" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,125 +1063,146 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="77" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="77" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="77" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="77" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="99">
-    <cellStyle name="Accent1 - 20%" xfId="4"/>
-    <cellStyle name="Accent1 - 40%" xfId="5"/>
-    <cellStyle name="Accent1 - 60%" xfId="6"/>
-    <cellStyle name="Accent1 2" xfId="3"/>
-    <cellStyle name="Accent1 3" xfId="87"/>
-    <cellStyle name="Accent1 4" xfId="98"/>
-    <cellStyle name="Accent2 - 20%" xfId="8"/>
-    <cellStyle name="Accent2 - 40%" xfId="9"/>
-    <cellStyle name="Accent2 - 60%" xfId="10"/>
-    <cellStyle name="Accent2 2" xfId="7"/>
-    <cellStyle name="Accent2 3" xfId="88"/>
-    <cellStyle name="Accent2 4" xfId="97"/>
-    <cellStyle name="Accent3 - 20%" xfId="12"/>
-    <cellStyle name="Accent3 - 40%" xfId="13"/>
-    <cellStyle name="Accent3 - 60%" xfId="14"/>
-    <cellStyle name="Accent3 2" xfId="11"/>
-    <cellStyle name="Accent3 3" xfId="89"/>
-    <cellStyle name="Accent3 4" xfId="96"/>
-    <cellStyle name="Accent4 - 20%" xfId="16"/>
-    <cellStyle name="Accent4 - 40%" xfId="17"/>
-    <cellStyle name="Accent4 - 60%" xfId="18"/>
-    <cellStyle name="Accent4 2" xfId="15"/>
-    <cellStyle name="Accent4 3" xfId="90"/>
-    <cellStyle name="Accent4 4" xfId="95"/>
-    <cellStyle name="Accent5 - 20%" xfId="20"/>
-    <cellStyle name="Accent5 - 40%" xfId="21"/>
-    <cellStyle name="Accent5 - 60%" xfId="22"/>
-    <cellStyle name="Accent5 2" xfId="19"/>
-    <cellStyle name="Accent5 3" xfId="91"/>
-    <cellStyle name="Accent5 4" xfId="94"/>
-    <cellStyle name="Accent6 - 20%" xfId="24"/>
-    <cellStyle name="Accent6 - 40%" xfId="25"/>
-    <cellStyle name="Accent6 - 60%" xfId="26"/>
-    <cellStyle name="Accent6 2" xfId="23"/>
-    <cellStyle name="Accent6 3" xfId="92"/>
-    <cellStyle name="Accent6 4" xfId="93"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Calculation 2" xfId="28"/>
-    <cellStyle name="Check Cell 2" xfId="29"/>
-    <cellStyle name="Emphasis 1" xfId="30"/>
-    <cellStyle name="Emphasis 2" xfId="31"/>
-    <cellStyle name="Emphasis 3" xfId="32"/>
-    <cellStyle name="Good 2" xfId="33"/>
-    <cellStyle name="Heading 1 2" xfId="34"/>
-    <cellStyle name="Heading 2 2" xfId="35"/>
-    <cellStyle name="Heading 3 2" xfId="36"/>
-    <cellStyle name="Heading 4 2" xfId="37"/>
-    <cellStyle name="Input 2" xfId="38"/>
-    <cellStyle name="Linked Cell 2" xfId="39"/>
-    <cellStyle name="Neutral 2" xfId="40"/>
+    <cellStyle name="Accent1 - 20%" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent1 - 40%" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 - 60%" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent1 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Accent1 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Accent2 - 20%" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent2 - 40%" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent2 - 60%" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Accent2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Accent2 4" xfId="97" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Accent3 - 20%" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Accent3 - 40%" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Accent3 - 60%" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Accent3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Accent3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent4 - 20%" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent4 - 40%" xfId="17" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent4 - 60%" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent4 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent4 4" xfId="95" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent5 - 20%" xfId="20" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Accent5 - 40%" xfId="21" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Accent5 - 60%" xfId="22" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Accent5 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Accent5 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Accent6 - 20%" xfId="24" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Accent6 - 40%" xfId="25" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Accent6 - 60%" xfId="26" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Accent6 3" xfId="92" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Accent6 4" xfId="93" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Emphasis 1" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Emphasis 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Emphasis 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Good 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Heading 1 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Heading 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Heading 3 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Heading 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Input 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Neutral 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Note 2" xfId="41"/>
-    <cellStyle name="Output 2" xfId="42"/>
-    <cellStyle name="SAPBEXaggData" xfId="43"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="44"/>
-    <cellStyle name="SAPBEXaggItem" xfId="45"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="46"/>
-    <cellStyle name="SAPBEXchaText" xfId="47"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="48"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="49"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="50"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="51"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="52"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="53"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="54"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="55"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="56"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="57"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="58"/>
-    <cellStyle name="SAPBEXfilterText" xfId="59"/>
-    <cellStyle name="SAPBEXformats" xfId="60"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="61"/>
-    <cellStyle name="SAPBEXheaderText" xfId="62"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="63"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="64"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="65"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="66"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="67"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="68"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="69"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="70"/>
-    <cellStyle name="SAPBEXinputData" xfId="71"/>
-    <cellStyle name="SAPBEXItemHeader" xfId="72"/>
-    <cellStyle name="SAPBEXresData" xfId="73"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="74"/>
-    <cellStyle name="SAPBEXresItem" xfId="75"/>
-    <cellStyle name="SAPBEXresItemX" xfId="76"/>
-    <cellStyle name="SAPBEXstdData" xfId="77"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="78"/>
-    <cellStyle name="SAPBEXstdItem" xfId="79"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="80"/>
-    <cellStyle name="SAPBEXtitle" xfId="81"/>
-    <cellStyle name="SAPBEXunassignedItem" xfId="82"/>
-    <cellStyle name="SAPBEXundefined" xfId="83"/>
-    <cellStyle name="Sheet Title" xfId="84"/>
-    <cellStyle name="Total 2" xfId="85"/>
-    <cellStyle name="Warning Text 2" xfId="86"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Note 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Output 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="43" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="47" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="48" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="49" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="50" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="51" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="52" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="53" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="54" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="55" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="56" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="57" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="58" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="59" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="SAPBEXformats" xfId="60" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="61" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="62" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="63" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="64" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="65" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="66" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="67" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="68" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="69" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="70" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="SAPBEXinputData" xfId="71" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="SAPBEXItemHeader" xfId="72" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="SAPBEXresData" xfId="73" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="74" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="75" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="76" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="77" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="78" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="79" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="80" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="81" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="SAPBEXunassignedItem" xfId="82" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="83" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Sheet Title" xfId="84" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Total 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Warning Text 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,12 +1474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G347" sqref="G347"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6739,6 +6871,1117 @@
         <v>0</v>
       </c>
     </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="6">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="6">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="6">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="6">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="6">
+        <v>45277</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="6">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="6">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="6">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="6">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="6">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="6">
+        <v>45283</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="6">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="6">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="6">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="6">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="6">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="6">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="6">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="6">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="6">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="6">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="6">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="6">
+        <v>45295</v>
+      </c>
+      <c r="B370" s="1">
+        <v>98</v>
+      </c>
+      <c r="E370" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="6">
+        <v>45296</v>
+      </c>
+      <c r="B371" s="1">
+        <v>98</v>
+      </c>
+      <c r="E371" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="6">
+        <v>45297</v>
+      </c>
+      <c r="B372" s="1">
+        <v>98</v>
+      </c>
+      <c r="E372" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="6">
+        <v>45298</v>
+      </c>
+      <c r="B373" s="1">
+        <v>98</v>
+      </c>
+      <c r="E373" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="6">
+        <v>45299</v>
+      </c>
+      <c r="B374" s="1">
+        <v>98</v>
+      </c>
+      <c r="E374" s="8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="6">
+        <v>45300</v>
+      </c>
+      <c r="B375" s="1">
+        <v>98</v>
+      </c>
+      <c r="E375" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="6">
+        <v>45301</v>
+      </c>
+      <c r="B376" s="1">
+        <v>98</v>
+      </c>
+      <c r="E376" s="8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="6">
+        <v>45302</v>
+      </c>
+      <c r="B377" s="1">
+        <v>98</v>
+      </c>
+      <c r="E377" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="6">
+        <v>45303</v>
+      </c>
+      <c r="B378" s="1">
+        <v>98</v>
+      </c>
+      <c r="E378" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="6">
+        <v>45304</v>
+      </c>
+      <c r="B379" s="1">
+        <v>98</v>
+      </c>
+      <c r="E379" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="6">
+        <v>45305</v>
+      </c>
+      <c r="B380" s="1">
+        <v>0</v>
+      </c>
+      <c r="E380" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="6">
+        <v>45306</v>
+      </c>
+      <c r="B381" s="1">
+        <v>98</v>
+      </c>
+      <c r="E381" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="6">
+        <v>45307</v>
+      </c>
+      <c r="B382" s="1">
+        <v>98</v>
+      </c>
+      <c r="E382" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="6">
+        <v>45308</v>
+      </c>
+      <c r="B383" s="1">
+        <v>98</v>
+      </c>
+      <c r="E383" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="6">
+        <v>45309</v>
+      </c>
+      <c r="B384" s="1">
+        <v>98</v>
+      </c>
+      <c r="E384" s="10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="6">
+        <v>45310</v>
+      </c>
+      <c r="B385" s="1">
+        <v>98</v>
+      </c>
+      <c r="E385" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="6">
+        <v>45311</v>
+      </c>
+      <c r="B386" s="1">
+        <v>98</v>
+      </c>
+      <c r="E386" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="6">
+        <v>45312</v>
+      </c>
+      <c r="B387" s="1">
+        <v>0</v>
+      </c>
+      <c r="E387" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="6">
+        <v>45313</v>
+      </c>
+      <c r="B388" s="1">
+        <v>98</v>
+      </c>
+      <c r="E388" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="6">
+        <v>45314</v>
+      </c>
+      <c r="B389" s="1">
+        <v>98</v>
+      </c>
+      <c r="E389" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="6">
+        <v>45315</v>
+      </c>
+      <c r="B390" s="1">
+        <v>98</v>
+      </c>
+      <c r="E390" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="6">
+        <v>45316</v>
+      </c>
+      <c r="B391" s="1">
+        <v>98</v>
+      </c>
+      <c r="E391" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="6">
+        <v>45317</v>
+      </c>
+      <c r="B392" s="1">
+        <v>0</v>
+      </c>
+      <c r="E392" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="6">
+        <v>45318</v>
+      </c>
+      <c r="B393" s="1">
+        <v>98</v>
+      </c>
+      <c r="E393" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="6">
+        <v>45319</v>
+      </c>
+      <c r="B394" s="1">
+        <v>0</v>
+      </c>
+      <c r="E394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="6">
+        <v>45320</v>
+      </c>
+      <c r="B395" s="1">
+        <v>98</v>
+      </c>
+      <c r="E395" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="6">
+        <v>45321</v>
+      </c>
+      <c r="B396" s="1">
+        <v>98</v>
+      </c>
+      <c r="E396" s="1">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="6">
+        <v>45322</v>
+      </c>
+      <c r="B397" s="1">
+        <v>98</v>
+      </c>
+      <c r="E397" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="6">
+        <v>45323</v>
+      </c>
+      <c r="B398" s="1">
+        <v>98</v>
+      </c>
+      <c r="E398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="6">
+        <v>45324</v>
+      </c>
+      <c r="B399" s="1">
+        <v>98</v>
+      </c>
+      <c r="E399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="6">
+        <v>45325</v>
+      </c>
+      <c r="B400" s="1">
+        <v>98</v>
+      </c>
+      <c r="E400" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="6">
+        <v>45326</v>
+      </c>
+      <c r="B401" s="1">
+        <v>0</v>
+      </c>
+      <c r="E401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="6">
+        <v>45327</v>
+      </c>
+      <c r="B402" s="1">
+        <v>98</v>
+      </c>
+      <c r="E402" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="6">
+        <v>45328</v>
+      </c>
+      <c r="B403" s="1">
+        <v>98</v>
+      </c>
+      <c r="E403" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="6">
+        <v>45329</v>
+      </c>
+      <c r="B404" s="1">
+        <v>98</v>
+      </c>
+      <c r="E404" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="6">
+        <v>45330</v>
+      </c>
+      <c r="B405" s="1">
+        <v>98</v>
+      </c>
+      <c r="E405" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="6">
+        <v>45331</v>
+      </c>
+      <c r="B406" s="1">
+        <v>98</v>
+      </c>
+      <c r="E406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="6">
+        <v>45332</v>
+      </c>
+      <c r="B407" s="1">
+        <v>98</v>
+      </c>
+      <c r="E407" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="6">
+        <v>45333</v>
+      </c>
+      <c r="B408" s="1">
+        <v>0</v>
+      </c>
+      <c r="E408" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="6">
+        <v>45334</v>
+      </c>
+      <c r="B409" s="1">
+        <v>98</v>
+      </c>
+      <c r="E409" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="6">
+        <v>45335</v>
+      </c>
+      <c r="B410" s="1">
+        <v>98</v>
+      </c>
+      <c r="E410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="6">
+        <v>45336</v>
+      </c>
+      <c r="B411" s="1">
+        <v>98</v>
+      </c>
+      <c r="E411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="6">
+        <v>45337</v>
+      </c>
+      <c r="B412" s="1">
+        <v>98</v>
+      </c>
+      <c r="E412" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="6">
+        <v>45338</v>
+      </c>
+      <c r="B413" s="1">
+        <v>98</v>
+      </c>
+      <c r="E413" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="6">
+        <v>45339</v>
+      </c>
+      <c r="B414" s="1">
+        <v>98</v>
+      </c>
+      <c r="E414" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="6">
+        <v>45340</v>
+      </c>
+      <c r="B415" s="1">
+        <v>0</v>
+      </c>
+      <c r="E415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="6">
+        <v>45341</v>
+      </c>
+      <c r="B416" s="1">
+        <v>98</v>
+      </c>
+      <c r="E416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="6">
+        <v>45342</v>
+      </c>
+      <c r="B417" s="1">
+        <v>98</v>
+      </c>
+      <c r="E417" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="6">
+        <v>45343</v>
+      </c>
+      <c r="B418" s="1">
+        <v>98</v>
+      </c>
+      <c r="E418" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="6">
+        <v>45344</v>
+      </c>
+      <c r="B419" s="1">
+        <v>98</v>
+      </c>
+      <c r="E419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="6">
+        <v>45345</v>
+      </c>
+      <c r="B420" s="1">
+        <v>98</v>
+      </c>
+      <c r="E420" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="6">
+        <v>45346</v>
+      </c>
+      <c r="B421" s="1">
+        <v>98</v>
+      </c>
+      <c r="E421" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="6">
+        <v>45347</v>
+      </c>
+      <c r="B422" s="1">
+        <v>0</v>
+      </c>
+      <c r="E422" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="6">
+        <v>45348</v>
+      </c>
+      <c r="B423" s="1">
+        <v>98</v>
+      </c>
+      <c r="E423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="6">
+        <v>45349</v>
+      </c>
+      <c r="B424" s="1">
+        <v>98</v>
+      </c>
+      <c r="E424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="6">
+        <v>45350</v>
+      </c>
+      <c r="B425" s="1">
+        <v>98</v>
+      </c>
+      <c r="E425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="6">
+        <v>45351</v>
+      </c>
+      <c r="B426" s="1">
+        <v>98</v>
+      </c>
+      <c r="E426" s="8">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="6">
+        <v>45352</v>
+      </c>
+      <c r="B427" s="1">
+        <v>98</v>
+      </c>
+      <c r="E427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="6">
+        <v>45353</v>
+      </c>
+      <c r="B428" s="1">
+        <v>98</v>
+      </c>
+      <c r="E428" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="6">
+        <v>45354</v>
+      </c>
+      <c r="B429" s="1">
+        <v>0</v>
+      </c>
+      <c r="E429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="6">
+        <v>45355</v>
+      </c>
+      <c r="B430" s="1">
+        <v>98</v>
+      </c>
+      <c r="E430" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="6">
+        <v>45356</v>
+      </c>
+      <c r="B431" s="1">
+        <v>98</v>
+      </c>
+      <c r="E431" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="6">
+        <v>45357</v>
+      </c>
+      <c r="B432" s="1">
+        <v>98</v>
+      </c>
+      <c r="E432" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="6">
+        <v>45358</v>
+      </c>
+      <c r="B433" s="1">
+        <v>98</v>
+      </c>
+      <c r="E433" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="6">
+        <v>45359</v>
+      </c>
+      <c r="B434" s="1">
+        <v>98</v>
+      </c>
+      <c r="E434" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="6">
+        <v>45360</v>
+      </c>
+      <c r="B435" s="1">
+        <v>98</v>
+      </c>
+      <c r="E435" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="6">
+        <v>45361</v>
+      </c>
+      <c r="B436" s="1">
+        <v>0</v>
+      </c>
+      <c r="E436" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="6">
+        <v>45362</v>
+      </c>
+      <c r="B437" s="1">
+        <v>98</v>
+      </c>
+      <c r="E437" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="6">
+        <v>45363</v>
+      </c>
+      <c r="B438" s="1">
+        <v>98</v>
+      </c>
+      <c r="E438" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="6">
+        <v>45364</v>
+      </c>
+      <c r="B439" s="1">
+        <v>98</v>
+      </c>
+      <c r="E439" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="6">
+        <v>45365</v>
+      </c>
+      <c r="B440" s="1">
+        <v>98</v>
+      </c>
+      <c r="E440" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="6">
+        <v>45366</v>
+      </c>
+      <c r="B441" s="1">
+        <v>98</v>
+      </c>
+      <c r="E441" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="6">
+        <v>45367</v>
+      </c>
+      <c r="B442" s="1">
+        <v>98</v>
+      </c>
+      <c r="E442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="6">
+        <v>45368</v>
+      </c>
+      <c r="B443" s="1">
+        <v>0</v>
+      </c>
+      <c r="E443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="6">
+        <v>45369</v>
+      </c>
+      <c r="B444" s="1">
+        <v>98</v>
+      </c>
+      <c r="E444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="6">
+        <v>45370</v>
+      </c>
+      <c r="B445" s="1">
+        <v>98</v>
+      </c>
+      <c r="E445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="6">
+        <v>45371</v>
+      </c>
+      <c r="B446" s="1">
+        <v>98</v>
+      </c>
+      <c r="E446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="6">
+        <v>45372</v>
+      </c>
+      <c r="B447" s="1">
+        <v>98</v>
+      </c>
+      <c r="E447" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="6">
+        <v>45373</v>
+      </c>
+      <c r="B448" s="1">
+        <v>98</v>
+      </c>
+      <c r="E448" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="6">
+        <v>45374</v>
+      </c>
+      <c r="B449" s="1">
+        <v>98</v>
+      </c>
+      <c r="E449" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="6">
+        <v>45375</v>
+      </c>
+      <c r="B450" s="1">
+        <v>0</v>
+      </c>
+      <c r="E450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="6">
+        <v>45376</v>
+      </c>
+      <c r="B451" s="1">
+        <v>0</v>
+      </c>
+      <c r="E451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="6">
+        <v>45377</v>
+      </c>
+      <c r="B452" s="1">
+        <v>98</v>
+      </c>
+      <c r="E452" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="6">
+        <v>45378</v>
+      </c>
+      <c r="B453" s="1">
+        <v>98</v>
+      </c>
+      <c r="E453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="6">
+        <v>45379</v>
+      </c>
+      <c r="B454" s="1">
+        <v>98</v>
+      </c>
+      <c r="E454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="6">
+        <v>45380</v>
+      </c>
+      <c r="B455" s="1">
+        <v>98</v>
+      </c>
+      <c r="E455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="6">
+        <v>45381</v>
+      </c>
+      <c r="B456" s="1">
+        <v>0</v>
+      </c>
+      <c r="E456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="6">
+        <v>45382</v>
+      </c>
+      <c r="B457" s="1">
+        <v>0</v>
+      </c>
+      <c r="E457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="6">
+        <v>45383</v>
+      </c>
+      <c r="B458" s="1">
+        <v>98</v>
+      </c>
+      <c r="E458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="6">
+        <v>45384</v>
+      </c>
+      <c r="B459" s="1">
+        <v>98</v>
+      </c>
+      <c r="E459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="6">
+        <v>45385</v>
+      </c>
+      <c r="B460" s="1">
+        <v>98</v>
+      </c>
+      <c r="E460" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -6748,12 +7991,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6782,8 +8025,12 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -6792,8 +8039,12 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -6802,8 +8053,12 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -6812,8 +8067,12 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -7259,7 +8518,190 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>98</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>98</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>98</v>
+      </c>
+      <c r="D53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>98</v>
+      </c>
+      <c r="D54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>98</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>98</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>98</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>98</v>
+      </c>
+      <c r="D61">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>98</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
@@ -7268,12 +8710,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7296,7 +8738,7 @@
       <c r="B2" s="1">
         <v>120</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>126</v>
       </c>
     </row>
@@ -7307,7 +8749,7 @@
       <c r="B3" s="1">
         <v>120</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>99</v>
       </c>
     </row>
@@ -7318,7 +8760,7 @@
       <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>129</v>
       </c>
     </row>
@@ -7329,7 +8771,7 @@
       <c r="B5" s="1">
         <v>120</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>86</v>
       </c>
     </row>
@@ -7340,7 +8782,7 @@
       <c r="B6" s="1">
         <v>120</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>118</v>
       </c>
     </row>
@@ -7351,7 +8793,7 @@
       <c r="B7" s="1">
         <v>120</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>118</v>
       </c>
     </row>
@@ -7362,7 +8804,7 @@
       <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>128</v>
       </c>
     </row>
@@ -7373,7 +8815,7 @@
       <c r="B9" s="1">
         <v>120</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>102</v>
       </c>
     </row>
@@ -7384,7 +8826,7 @@
       <c r="B10" s="1">
         <v>120</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>104</v>
       </c>
     </row>
@@ -7395,7 +8837,7 @@
       <c r="B11" s="1">
         <v>120</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>100</v>
       </c>
     </row>
@@ -7406,7 +8848,7 @@
       <c r="B12" s="1">
         <v>120</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>80</v>
       </c>
     </row>
@@ -7417,9 +8859,56 @@
       <c r="B13" s="1">
         <v>120</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1">
+        <v>98</v>
+      </c>
+      <c r="C16" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
@@ -7428,12 +8917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7474,29 +8963,1099 @@
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <f ca="1">NOW()</f>
-        <v>45273.438029398145</v>
+        <v>45387.388620949074</v>
       </c>
       <c r="B2" s="2">
         <v>45267</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="1">
         <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <f ca="1">NOW()</f>
+        <v>45387.388620949074</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45299</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8">
+        <v>79906635</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2">
+        <v>45302</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="2">
+        <v>45303</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2">
+        <v>45304</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="2">
+        <v>45305</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2">
+        <v>45306</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2">
+        <v>45307</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2">
+        <v>45308</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="2">
+        <v>45309</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2">
+        <v>45310</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="2">
+        <v>45311</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8">
+        <v>79907051</v>
+      </c>
+      <c r="E15" s="8">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="2">
+        <v>45312</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2">
+        <v>45313</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2">
+        <v>45314</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2">
+        <v>45315</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8">
+        <v>79907051</v>
+      </c>
+      <c r="E19" s="8">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="2">
+        <v>45316</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="2">
+        <v>45317</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="2">
+        <v>45318</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8">
+        <v>79956700</v>
+      </c>
+      <c r="E22" s="8">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="2">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2">
+        <v>45320</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8">
+        <v>79906571</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2">
+        <v>45321</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>79960185</v>
+      </c>
+      <c r="E25" s="1">
+        <v>63</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2">
+        <v>45321</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1">
+        <v>79910359</v>
+      </c>
+      <c r="E26" s="1">
+        <v>65</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2">
+        <v>45321</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>79942760</v>
+      </c>
+      <c r="E27" s="1">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2">
+        <v>45322</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1">
+        <v>79913010</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="2">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1">
+        <v>79906571</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1">
+        <v>79906732</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1">
+        <v>79942760</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <v>79912958</v>
+      </c>
+      <c r="E37" s="1">
+        <v>23</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1">
+        <v>79914753</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="2">
+        <v>45331</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="30">
+      <c r="B45" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1">
+        <v>79955304</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="2">
+        <v>45338</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="2">
+        <v>45343</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1">
+        <v>79942781</v>
+      </c>
+      <c r="E59" s="1">
+        <v>159</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="2">
+        <v>45353</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="2">
+        <v>45354</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="2">
+        <v>45355</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="2">
+        <v>45356</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="2">
+        <v>45357</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="2">
+        <v>45358</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="2">
+        <v>45359</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="2">
+        <v>45360</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="2">
+        <v>45361</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="2">
+        <v>45362</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="8">
+        <v>79928660</v>
+      </c>
+      <c r="E71" s="1">
+        <v>54</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="8">
+        <v>79956122</v>
+      </c>
+      <c r="E72" s="1">
+        <v>38</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="8">
+        <v>79960183</v>
+      </c>
+      <c r="E73" s="1">
+        <v>84</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="8">
+        <v>79960183</v>
+      </c>
+      <c r="E74" s="1">
+        <v>21</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="8">
+        <v>79956122</v>
+      </c>
+      <c r="E75" s="1">
+        <v>17</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="2">
+        <v>45369</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="2">
+        <v>45370</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="2">
+        <v>45372</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="8">
+        <v>79904363</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="2">
+        <v>45373</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1">
+        <v>79906732</v>
+      </c>
+      <c r="E85" s="1">
+        <v>52</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1">
+        <v>79906880</v>
+      </c>
+      <c r="E86" s="1">
+        <v>31</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="1">
+        <v>79942760</v>
+      </c>
+      <c r="E87" s="1">
+        <v>29</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="2">
+        <v>45375</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="2">
+        <v>45376</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="2">
+        <v>45377</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="8">
+        <v>79960118</v>
+      </c>
+      <c r="E90" s="1">
+        <v>201</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="2">
+        <v>45377</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="8">
+        <v>79960115</v>
+      </c>
+      <c r="E91" s="1">
+        <v>150</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="2">
+        <v>45377</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="8">
+        <v>79960188</v>
+      </c>
+      <c r="E92" s="1">
+        <v>129</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="2">
+        <v>45378</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="2">
+        <v>45379</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="2">
+        <v>45380</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="2">
+        <v>45381</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="2">
+        <v>45382</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="2">
+        <v>45383</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="2">
+        <v>45385</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 MAHLE internal (CL2)</oddFooter>
   </headerFooter>
